--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>161217</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>92.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>168106</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.07</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168107</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000639</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈祥瑞养老混合A</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007577</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈祥瑞养老混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>000639</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>宝盈祥瑞养老混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>007577</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>70.77</t>
-        </is>
-      </c>
+          <t>宝盈祥瑞养老混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1858,7 +1859,6 @@
           <t>宝盈祥瑞养老混合C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>29.79</t>
@@ -1874,6 +1874,746 @@
       </c>
       <c r="H20" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2619,4 +2620,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3360,4 +3361,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3369,7 +3370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3380,17 +3381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3400,14 +3421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.12</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3416,14 +3459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.22</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3432,14 +3497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.55</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3448,13 +3535,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4224,7 +4225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4235,17 +4236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4255,14 +4276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.03</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4271,14 +4314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.12</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4287,14 +4352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.22</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4303,14 +4390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.55</v>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4319,13 +4428,1953 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6257,7 +6258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6268,17 +6269,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6288,14 +6309,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.99</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6304,14 +6347,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.03</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6320,14 +6385,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.12</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6336,14 +6423,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.22</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6352,14 +6461,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.55</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6368,13 +6499,1131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4853</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>13.61</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>18.99</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>4.03</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>5.12</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>6.22</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>6.55</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.710000000000001</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3863,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4710,746 +5695,6 @@
       </c>
       <c r="H22" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2714</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8010</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7632</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7472</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3941</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3285</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2348</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1617</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159871</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华中证有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>516680</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>516650</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159880</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华国证有色金属行业ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>96.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159876</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝中证有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5524,26 +5769,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>43.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6172</t>
+          <t>1.2714</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5562,26 +5807,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2879</t>
+          <t>0.8010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5590,36 +5835,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>23.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.7632</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5628,36 +5873,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7088</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5666,36 +5911,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5381</t>
+          <t>0.3941</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5704,36 +5949,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4492</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -5742,36 +5987,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.2348</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -5790,26 +6035,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1516</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -5818,36 +6063,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1023</t>
+          <t>0.1458</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -5856,36 +6101,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0686</t>
+          <t>0.1458</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -5894,36 +6139,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>159881</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -5932,36 +6177,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -5970,36 +6215,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>159871</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>银华中证有色金属ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -6008,36 +6253,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -6046,36 +6291,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159871</t>
+          <t>516680</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华中证有色金属ETF</t>
+          <t>建信中证细分有色金属产业主题ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -6084,32 +6329,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159880</t>
+          <t>516650</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华国证有色金属行业ETF</t>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>98.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -6122,36 +6367,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>159880</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>鹏华国证有色金属行业ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>96.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -6170,26 +6415,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>95.65</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6198,6 +6443,746 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6968,7 +7953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600547-山东黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>8.029999999999999</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>13.61</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>18.99</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>4.03</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>5.12</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>6.22</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>6.55</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.710000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,2562 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>561330</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属矿业主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +4821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2816,7 +6053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4848,7 +8085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5695,746 +8932,6 @@
       </c>
       <c r="H22" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2714</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8010</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7632</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7472</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3941</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3285</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2348</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1617</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159881</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159871</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华中证有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>516680</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>516650</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159880</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华国证有色金属行业ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>96.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159876</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝中证有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6509,26 +9006,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>43.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6172</t>
+          <t>1.2714</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6547,26 +9044,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2879</t>
+          <t>0.8010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6575,36 +9072,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>23.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.7632</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6613,36 +9110,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7088</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6651,36 +9148,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5381</t>
+          <t>0.3941</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6689,36 +9186,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4492</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6727,36 +9224,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.2348</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -6775,26 +9272,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.63</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1516</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -6803,36 +9300,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1023</t>
+          <t>0.1458</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6841,36 +9338,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0686</t>
+          <t>0.1458</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6879,36 +9376,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>159881</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -6917,36 +9414,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -6955,36 +9452,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>159871</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>银华中证有色金属ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -6993,36 +9490,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -7031,36 +9528,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159871</t>
+          <t>516680</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华中证有色金属ETF</t>
+          <t>建信中证细分有色金属产业主题ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -7069,32 +9566,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159880</t>
+          <t>516650</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华国证有色金属行业ETF</t>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>98.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -7107,36 +9604,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>159880</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>鹏华国证有色金属行业ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>96.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -7155,26 +9652,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>95.65</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7183,6 +9680,746 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7951,668 +11188,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2649</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8593</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6662</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3203</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7798</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4540</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3761</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3761</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2782</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1675</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>168106</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168107</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>